--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LaunchData" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LoginData" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Testcase Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase Name</t>
+  </si>
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -28,20 +34,47 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify_LoginData_With_Standard_User</t>
+  </si>
+  <si>
     <t xml:space="preserve">standard_user</t>
   </si>
   <si>
     <t xml:space="preserve">secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_LoginData_With_Locked_Out_User</t>
   </si>
   <si>
     <t xml:space="preserve">locked_out_user
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Verify_LoginData_With_Problem_User</t>
+  </si>
+  <si>
     <t xml:space="preserve">problem_user</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify_LoginData_With_Performance_User</t>
+  </si>
+  <si>
     <t xml:space="preserve">performance_glitch_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_LoginData_With_Empty_Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_LoginData_With_Empty_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_LoginData_With_Invalid_User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@123</t>
   </si>
 </sst>
 </file>
@@ -51,11 +84,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -71,6 +105,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,16 +156,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,59 +194,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" display="test@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
